--- a/biology/Zoologie/Agrias_hewitsonius/Agrias_hewitsonius.xlsx
+++ b/biology/Zoologie/Agrias_hewitsonius/Agrias_hewitsonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrias hewitsonius est une espèce d'insectes lépidoptères de la sous-famille des Charaxinae (famille des Nymphalidae).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias hewitsonius est un papillon  d'une envergure d'environ 69 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe légèrement festonné[1]. 
-La coloration des sous-espèces est très diverse par ses nuances et ses dimensions[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias hewitsonius est un papillon  d'une envergure d'environ 69 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe légèrement festonné. 
+La coloration des sous-espèces est très diverse par ses nuances et ses dimensions.
 La face supérieure est noire avec aux ailes antérieures le plus souvent, une tache basodiscale bleu vif, une bande marginale bleu vert clair discale et postdiscale vers l'apex et aux ailes postérieures une bande marginale bleu vert clair.
 Le revers est bleu vert clair métallisé avec aux ailes antérieures une grande tache basodiscale grise et une minime marque basale orange et aux ailes postérieures une plus ou moins grande tache basodiscale orange, une ligne submarginale d'ocelles pupillés de bleu et des taches noires organisées en lignes dans la partie bleu vert.
 </t>
@@ -542,12 +556,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias hewitsonius est présent en Équateur, en Colombie, au Pérou et au Brésil.
+</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agrias hewitsonius est présent en Équateur, en Colombie, au Pérou et au Brésil[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
@@ -609,9 +629,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er juillet 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er juillet 2023) :
 Agrias hewitsonius ambiguus Biedermann, 1927
 Agrias hewitsonius beata Staudinger - Pérou
 Agrias hewitsonius beatifica Hewitson, 1869 - Équateur et Pérou
@@ -649,10 +671,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Agrias hewitsonius Bates, 1860[4].
-Agrias hewitsonius a pour synonyme[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Agrias hewitsonius Bates, 1860.
+Agrias hewitsonius a pour synonyme :
 Agrias paradoxus Rebillard, 1961</t>
         </is>
       </c>
